--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.63232596202403</v>
+        <v>85.53242934847417</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.591579173761</v>
+        <v>117.0292432590028</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.80459337193693</v>
+        <v>105.8601365339684</v>
       </c>
       <c r="AD2" t="n">
-        <v>59632.32596202404</v>
+        <v>85532.42934847416</v>
       </c>
       <c r="AE2" t="n">
-        <v>81591.579173761</v>
+        <v>117029.2432590028</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.157072866086672e-06</v>
+        <v>7.434768432570047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>73804.59337193694</v>
+        <v>105860.1365339684</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.68614203407468</v>
+        <v>85.5862454205248</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.6652126977382</v>
+        <v>117.10287678298</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.87119941573107</v>
+        <v>105.9267425777626</v>
       </c>
       <c r="AD3" t="n">
-        <v>59686.14203407468</v>
+        <v>85586.24542052481</v>
       </c>
       <c r="AE3" t="n">
-        <v>81665.2126977382</v>
+        <v>117102.87678298</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.152007758763684e-06</v>
+        <v>7.427466247588298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>73871.19941573107</v>
+        <v>105926.7425777626</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.84980395871295</v>
+        <v>83.10207462372169</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.15265392951129</v>
+        <v>113.7039247049148</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.59843572994455</v>
+        <v>102.8521817155677</v>
       </c>
       <c r="AD2" t="n">
-        <v>57849.80395871295</v>
+        <v>83102.0746237217</v>
       </c>
       <c r="AE2" t="n">
-        <v>79152.65392951129</v>
+        <v>113703.9247049148</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.466783567475424e-06</v>
+        <v>8.003165488110678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71598.43572994455</v>
+        <v>102852.1817155677</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.36124522009674</v>
+        <v>76.66311142281597</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.01120984210375</v>
+        <v>104.8938511864321</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.04312244666635</v>
+        <v>94.88292924867028</v>
       </c>
       <c r="AD2" t="n">
-        <v>53361.24522009674</v>
+        <v>76663.11142281597</v>
       </c>
       <c r="AE2" t="n">
-        <v>73011.20984210375</v>
+        <v>104893.8511864321</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.002354529052176e-06</v>
+        <v>9.286383344560555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.846354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66043.12244666634</v>
+        <v>94882.92924867028</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.93031541956839</v>
+        <v>78.99471195480182</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.15808091151155</v>
+        <v>108.0840498972493</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.98509915436298</v>
+        <v>97.76865987200011</v>
       </c>
       <c r="AD2" t="n">
-        <v>54930.3154195684</v>
+        <v>78994.71195480181</v>
       </c>
       <c r="AE2" t="n">
-        <v>75158.08091151154</v>
+        <v>108084.0498972493</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.905993856726895e-06</v>
+        <v>8.92569289331168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67985.09915436298</v>
+        <v>97768.65987200012</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.923110663274</v>
+        <v>82.51429422867659</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.98944363052662</v>
+        <v>112.8996976373736</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.16448620335525</v>
+        <v>102.1247089506126</v>
       </c>
       <c r="AD2" t="n">
-        <v>59923.110663274</v>
+        <v>82514.29422867659</v>
       </c>
       <c r="AE2" t="n">
-        <v>81989.44363052663</v>
+        <v>112899.6976373736</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.905423416010766e-06</v>
+        <v>9.333450786892584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>74164.48620335525</v>
+        <v>102124.7089506126</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.29796390606039</v>
+        <v>83.72051186338103</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.76584614089323</v>
+        <v>114.5500978197418</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.15310573729307</v>
+        <v>103.6175972559272</v>
       </c>
       <c r="AD2" t="n">
-        <v>58297.96390606039</v>
+        <v>83720.51186338103</v>
       </c>
       <c r="AE2" t="n">
-        <v>79765.84614089323</v>
+        <v>114550.0978197418</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394942762903031e-06</v>
+        <v>7.865213083482371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>72153.10573729308</v>
+        <v>103617.5972559272</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.24623030829847</v>
+        <v>81.467064905409</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.06330606699586</v>
+        <v>111.4668322767825</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.32673790904533</v>
+        <v>100.8285942489967</v>
       </c>
       <c r="AD2" t="n">
-        <v>59246.23030829847</v>
+        <v>81467.064905409</v>
       </c>
       <c r="AE2" t="n">
-        <v>81063.30606699586</v>
+        <v>111466.8322767825</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.754747441072158e-06</v>
+        <v>9.22045717740882e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>73326.73790904533</v>
+        <v>100828.5942489967</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.4087707875269</v>
+        <v>81.10840925344527</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.18096877079883</v>
+        <v>110.9761037909954</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.81492543550152</v>
+        <v>100.3847002011511</v>
       </c>
       <c r="AD2" t="n">
-        <v>56408.7707875269</v>
+        <v>81108.40925344528</v>
       </c>
       <c r="AE2" t="n">
-        <v>77180.96877079883</v>
+        <v>110976.1037909954</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.716594746970414e-06</v>
+        <v>8.488246820785096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.6640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>69814.92543550151</v>
+        <v>100384.7002011512</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.33326793778903</v>
+        <v>82.4087863027288</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.44590655772259</v>
+        <v>112.7553370384108</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.95913933539299</v>
+        <v>101.9941259246033</v>
       </c>
       <c r="AD2" t="n">
-        <v>57333.26793778903</v>
+        <v>82408.7863027288</v>
       </c>
       <c r="AE2" t="n">
-        <v>78445.9065577226</v>
+        <v>112755.3370384108</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.560318821648208e-06</v>
+        <v>8.176128992924612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>70959.13933539299</v>
+        <v>101994.1259246033</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.30849466298659</v>
+        <v>85.05448028797377</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.14849890398956</v>
+        <v>116.3752922688021</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.40380006124526</v>
+        <v>105.2685977084463</v>
       </c>
       <c r="AD2" t="n">
-        <v>59308.49466298659</v>
+        <v>85054.48028797377</v>
       </c>
       <c r="AE2" t="n">
-        <v>81148.49890398956</v>
+        <v>116375.2922688021</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.196063521947158e-06</v>
+        <v>7.517521846440359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>73403.80006124526</v>
+        <v>105268.5977084463</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.4828678870671</v>
+        <v>79.77029558666356</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.91410757443731</v>
+        <v>109.145237638697</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.66897169366945</v>
+        <v>98.72856934479073</v>
       </c>
       <c r="AD2" t="n">
-        <v>55482.8678870671</v>
+        <v>79770.29558666356</v>
       </c>
       <c r="AE2" t="n">
-        <v>75914.10757443731</v>
+        <v>109145.237638697</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.826529038475006e-06</v>
+        <v>8.749609010304962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.690104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>68668.97169366945</v>
+        <v>98728.56934479073</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.78484752274508</v>
+        <v>77.35942349898606</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.59080120060159</v>
+        <v>105.8465760881683</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.5673984193709</v>
+        <v>95.74472742294287</v>
       </c>
       <c r="AD2" t="n">
-        <v>53784.84752274508</v>
+        <v>77359.42349898606</v>
       </c>
       <c r="AE2" t="n">
-        <v>73590.80120060159</v>
+        <v>105846.5760881683</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.045077649774638e-06</v>
+        <v>9.271618192079441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66567.3984193709</v>
+        <v>95744.72742294287</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.75621864041011</v>
+        <v>75.76099891068401</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.18338578388804</v>
+        <v>103.6595410489385</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.29430475470809</v>
+        <v>93.76641993833358</v>
       </c>
       <c r="AD2" t="n">
-        <v>52756.21864041011</v>
+        <v>75760.99891068401</v>
       </c>
       <c r="AE2" t="n">
-        <v>72183.38578388804</v>
+        <v>103659.5410489385</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.011604504903663e-06</v>
+        <v>9.393013457815569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>65294.30475470809</v>
+        <v>93766.41993833358</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.15062706938735</v>
+        <v>88.02598505543219</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.51020631600041</v>
+        <v>120.4410361851749</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.87203925709565</v>
+        <v>108.9463127317492</v>
       </c>
       <c r="AD2" t="n">
-        <v>66150.62706938735</v>
+        <v>88025.98505543219</v>
       </c>
       <c r="AE2" t="n">
-        <v>90510.2063160004</v>
+        <v>120441.0361851749</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.368180942291191e-06</v>
+        <v>8.748396359790736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>81872.03925709565</v>
+        <v>108946.3127317492</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.6685006919425</v>
+        <v>81.56008760960574</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.53634268449477</v>
+        <v>111.5941100445366</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.13638296164483</v>
+        <v>100.9437248052318</v>
       </c>
       <c r="AD2" t="n">
-        <v>56668.50069194251</v>
+        <v>81560.08760960575</v>
       </c>
       <c r="AE2" t="n">
-        <v>77536.34268449477</v>
+        <v>111594.1100445366</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.704751194632352e-06</v>
+        <v>8.42808991092999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>70136.38296164482</v>
+        <v>100943.7248052318</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.69563108981932</v>
+        <v>84.2825796119389</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.30995192554988</v>
+        <v>115.3191437099973</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.64528282951953</v>
+        <v>104.3132464857797</v>
       </c>
       <c r="AD2" t="n">
-        <v>58695.63108981932</v>
+        <v>84282.5796119389</v>
       </c>
       <c r="AE2" t="n">
-        <v>80309.95192554989</v>
+        <v>115319.1437099973</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.331189436439493e-06</v>
+        <v>7.741788116045074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72645.28282951954</v>
+        <v>104313.2464857797</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.23485679482751</v>
+        <v>108.7278357915609</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.2031619605007</v>
+        <v>148.7662216635289</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.6399128190366</v>
+        <v>134.5681822627056</v>
       </c>
       <c r="AD2" t="n">
-        <v>73234.8567948275</v>
+        <v>108727.8357915609</v>
       </c>
       <c r="AE2" t="n">
-        <v>100203.1619605007</v>
+        <v>148766.2216635289</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.543412274608416e-06</v>
+        <v>7.573597569622412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>90639.9128190366</v>
+        <v>134568.1822627056</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.3505712693062</v>
+        <v>78.17819419675349</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.36484938861636</v>
+        <v>106.966854278467</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.26757253470527</v>
+        <v>96.7580878350801</v>
       </c>
       <c r="AD2" t="n">
-        <v>54350.5712693062</v>
+        <v>78178.19419675349</v>
       </c>
       <c r="AE2" t="n">
-        <v>74364.84938861636</v>
+        <v>106966.854278467</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.992656453744177e-06</v>
+        <v>9.120263538657398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67267.57253470526</v>
+        <v>96758.08783508011</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.92789427893602</v>
+        <v>80.42655773802923</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.52301231697083</v>
+        <v>110.0431644664378</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.21976342217894</v>
+        <v>99.5407992963405</v>
       </c>
       <c r="AD2" t="n">
-        <v>55927.89427893602</v>
+        <v>80426.55773802924</v>
       </c>
       <c r="AE2" t="n">
-        <v>76523.01231697084</v>
+        <v>110043.1644664378</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.781793839288072e-06</v>
+        <v>8.631701853299936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.6640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>69219.76342217895</v>
+        <v>99540.7992963405</v>
       </c>
     </row>
   </sheetData>
